--- a/pcb_components.xlsx
+++ b/pcb_components.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyaan\kicad\PicoKey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EABFF8-A923-4BC3-9F2C-F5AAF4922FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6D067-0229-4B82-9445-5C08CE1489D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <t>Id</t>
   </si>
@@ -148,6 +157,138 @@
   </si>
   <si>
     <t>Crystal_GND24</t>
+  </si>
+  <si>
+    <t>USBPCB</t>
+  </si>
+  <si>
+    <t>SW_SPST_PTS810</t>
+  </si>
+  <si>
+    <t>QFN-60</t>
+  </si>
+  <si>
+    <t>SOT-89-3</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.3x5.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
+  </si>
+  <si>
+    <t>GRM155R61C475KE15D</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GRM155R61C475KE15D_C426094.html</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>On PCB</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Power-Inductors_Abracon-LLC-AOTA-B201610S3R3-101-T_C42411119.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GRM155R61H104JE14D_C426067.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GJM1555C1H150FB01D_C441742.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL21A106KBYQNNE_C2932476.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/LED-Indication-Discrete_Everlight-Elec-16-213-GHC-YR1S1N-3T_C2980183.html?s_z=n_LED</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/ESD-and-Surge-Protection-TVS-ESD_TI-ESDS314DBVR_C1847859.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RT0402BRD0733RL_C852729.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Voltage-Regulators-Linear-Low-Drop-Out-LDO-Regulators_JSMSEMI-AMS1117S-3-3_C917152.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Vishay-Intertech-CRCW04021K00FKEDHP_C313354.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Tactile-Switches_C-K-PTS810SJM250SMTRLFS_C116501.html</t>
+  </si>
+  <si>
+    <t>https://www.silverlineelectronics.in/collections/the-raspberry-pi/products/rp2350a-raspberry-pi-microcontroller-chip-in-stock-silverline-india</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJ2GEJ270X_C278580.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/NOR-FLASH_Winbond-Elec-W25Q128JVSIM_C2613930.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Crystals_Abracon-LLC-ABM8-272-T3_C20625731.html?s_z=n_abm8</t>
+  </si>
+  <si>
+    <t>GRM155R61H104JE14D</t>
+  </si>
+  <si>
+    <t>GJM1555C1H150FB01D</t>
+  </si>
+  <si>
+    <t>RT0402BRD0733RL</t>
+  </si>
+  <si>
+    <t>ERJ2GEJ270X</t>
+  </si>
+  <si>
+    <t>W25Q128JVSIM</t>
+  </si>
+  <si>
+    <t>CL21A106KBVNNNE</t>
+  </si>
+  <si>
+    <t>19-213-GHC-YR1S1N-3T</t>
+  </si>
+  <si>
+    <t>ESD5314DBVR</t>
+  </si>
+  <si>
+    <t>A201610S3R3-101-T</t>
+  </si>
+  <si>
+    <t>CRCW040210K0FKEDHP</t>
+  </si>
+  <si>
+    <t>K-PTS810SJMS205MTLFSG</t>
+  </si>
+  <si>
+    <t>RPi2350</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>ABM8-27-T3</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Handling fee</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -465,16 +606,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="132.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -522,6 +666,31 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>402</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <f>H2*I2</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -533,6 +702,31 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>402</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>36</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J17" si="0">H3*I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -544,6 +738,31 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>402</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -555,6 +774,31 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>805</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -566,6 +810,31 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>402</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -577,6 +846,31 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>402</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -588,6 +882,30 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -599,6 +917,30 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>806</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1.3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -610,6 +952,31 @@
       <c r="C10">
         <v>33</v>
       </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>402</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -621,6 +988,31 @@
       <c r="C11" t="s">
         <v>35</v>
       </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>402</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -632,6 +1024,31 @@
       <c r="C12">
         <v>27</v>
       </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <v>402</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -643,6 +1060,31 @@
       <c r="C13" t="s">
         <v>36</v>
       </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>0.6</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -654,6 +1096,31 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>1.514</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>4.5419999999999998</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -665,6 +1132,31 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -676,8 +1168,33 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -687,8 +1204,62 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.1211</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20">
+        <f>SUM(J2:J19)</f>
+        <v>21.113100000000003</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>